--- a/biology/Zoologie/Calymmaria_similaria/Calymmaria_similaria.xlsx
+++ b/biology/Zoologie/Calymmaria_similaria/Calymmaria_similaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calymmaria similaria est une espèce d'araignées aranéomorphes de la famille des Cybaeidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calymmaria similaria est une espèce d'araignées aranéomorphes de la famille des Cybaeidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Californie aux États-Unis[1],[2]. Elle se rencontre dans les chaînes côtières californiennes dans les comtés d'Alameda, de Los Angeles, de Marin, de Monterey, de Napa, de San Bernardino, de San Diego, de San Francisco et de Santa Cruz[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Californie aux États-Unis,. Elle se rencontre dans les chaînes côtières californiennes dans les comtés d'Alameda, de Los Angeles, de Marin, de Monterey, de Napa, de San Bernardino, de San Diego, de San Francisco et de Santa Cruz.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles mesurent de 4,40 à 5,77 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles mesurent de 4,40 à 5,77 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Heiss &amp; Draney, 2004 : Revision of the Nearctic spider genus Calymmaria (Araneae, Hahniidae). Journal Of Arachnology, vol. 32, no 3, p. 457-525 (texte intégral).</t>
         </is>
